--- a/RTM/RTM.xlsx
+++ b/RTM/RTM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sushanth Office\Desktop\Sprint 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sushanth Office\Desktop\Sprint 1\Docs or excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD07E507-5A83-4FCC-B33B-B58C399200BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFF9E30-E412-47C9-A52A-0A586B281F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Req</t>
   </si>
@@ -84,13 +84,28 @@
   </si>
   <si>
     <t>printHallTicket()</t>
+  </si>
+  <si>
+    <t>HALLT_001</t>
+  </si>
+  <si>
+    <t>INPUT_003</t>
+  </si>
+  <si>
+    <t>INPUT_001</t>
+  </si>
+  <si>
+    <t>INPUT_002</t>
+  </si>
+  <si>
+    <t>INPUT_004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,11 +129,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -138,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -205,11 +215,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -221,7 +272,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -234,6 +284,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -489,11 +542,13 @@
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.4">
       <c r="A3" s="2" t="s">
@@ -502,11 +557,15 @@
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="14.4">
       <c r="A4" s="2" t="s">
@@ -518,8 +577,10 @@
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="14.4">
       <c r="A5" s="2" t="s">
@@ -531,57 +592,61 @@
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="14.4" hidden="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="14.4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" ht="14.4">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" ht="14.4">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" ht="14.4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" ht="14.4">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" ht="14.4">
-      <c r="A12" s="6"/>
+      <c r="A12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="14.4"/>
     <row r="14" spans="1:5" ht="14.4"/>
@@ -1568,13 +1633,19 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E0F2D14518B5045B0D90F64D5BF74B7" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e6db33e56d53feac802f5e54067a2ca1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="023f1dae-eefa-4464-9427-685eeabbe412" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cff158ef49836e8e3ea10648d076f642" ns2:_="">
     <xsd:import namespace="023f1dae-eefa-4464-9427-685eeabbe412"/>
@@ -1718,7 +1789,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1727,13 +1798,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{348187C7-0529-4D4D-B372-9EF91E331A06}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E95EA13-2F1A-4D0B-A0AC-07B3EF28DF8F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1751,19 +1825,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99BA82A0-B458-4C2B-B364-0CD6025614DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{348187C7-0529-4D4D-B372-9EF91E331A06}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/RTM/RTM.xlsx
+++ b/RTM/RTM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sushanth Office\Desktop\Sprint 1\Docs or excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFF9E30-E412-47C9-A52A-0A586B281F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D881BA-A90A-4AE9-9062-C79A770C06D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Req</t>
   </si>
@@ -99,13 +99,37 @@
   </si>
   <si>
     <t>INPUT_004</t>
+  </si>
+  <si>
+    <t>EC06</t>
+  </si>
+  <si>
+    <t>EC07</t>
+  </si>
+  <si>
+    <t>EC08</t>
+  </si>
+  <si>
+    <t>EC09</t>
+  </si>
+  <si>
+    <t>Application has to assign exam center based the exam</t>
+  </si>
+  <si>
+    <t>Input files are given as command line arguments</t>
+  </si>
+  <si>
+    <t>Application assigns exam centres to valid candidates when the application is started</t>
+  </si>
+  <si>
+    <t>Assign room numbers to each candidate ( Optional )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +157,20 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Ebrima"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Ebrima"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Ebrima"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -148,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -160,58 +198,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -230,63 +216,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,15 +457,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.5546875" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="3" max="3" width="56.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="30.109375" customWidth="1"/>
     <col min="6" max="26" width="8.6640625" customWidth="1"/>
@@ -535,120 +488,158 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="16.8">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.8">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.8">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.8">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>21</v>
-      </c>
+    <row r="6" spans="1:5" ht="16.8" hidden="1">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="14.4">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="7" spans="1:5" ht="30.6">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.8">
+      <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.8">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="4" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.4">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
+    <row r="10" spans="1:5" ht="16.8">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.4" hidden="1">
-      <c r="A6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.4">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.4">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.4">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.4">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+    <row r="11" spans="1:5" ht="16.8">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="14.4">
-      <c r="A12" s="5"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="14.4"/>
+    <row r="13" spans="1:5" ht="14.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
     <row r="14" spans="1:5" ht="14.4"/>
     <row r="15" spans="1:5" ht="14.4"/>
     <row r="16" spans="1:5" ht="14.4"/>
@@ -1640,12 +1631,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E0F2D14518B5045B0D90F64D5BF74B7" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e6db33e56d53feac802f5e54067a2ca1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="023f1dae-eefa-4464-9427-685eeabbe412" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cff158ef49836e8e3ea10648d076f642" ns2:_="">
     <xsd:import namespace="023f1dae-eefa-4464-9427-685eeabbe412"/>
@@ -1789,6 +1774,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1799,15 +1790,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{348187C7-0529-4D4D-B372-9EF91E331A06}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E95EA13-2F1A-4D0B-A0AC-07B3EF28DF8F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1825,6 +1807,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{348187C7-0529-4D4D-B372-9EF91E331A06}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99BA82A0-B458-4C2B-B364-0CD6025614DE}">
   <ds:schemaRefs>
